--- a/Multiknapsack/results/fixed_recourse/singlecut/M50_N200_T0_a50_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M50_N200_T0_a50_reformulation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>instance</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>num quad cons</t>
-  </si>
-  <si>
-    <t>OPTIMAL</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,266 +432,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-1599.389689557698</v>
-      </c>
-      <c r="C2">
-        <v>1.421627742930472e-14</v>
-      </c>
-      <c r="D2">
-        <v>177.251402327</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>5250</v>
-      </c>
-      <c r="G2">
-        <v>2550</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-1613.5929824769164</v>
-      </c>
-      <c r="C3">
-        <v>0.0</v>
-      </c>
-      <c r="D3">
-        <v>173.248186544</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>5250</v>
-      </c>
-      <c r="G3">
-        <v>2550</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-1602.4463753747423</v>
-      </c>
-      <c r="C4">
-        <v>2.837831941677862e-14</v>
-      </c>
-      <c r="D4">
-        <v>173.539646824</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>5250</v>
-      </c>
-      <c r="G4">
-        <v>2550</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-1618.8256052296601</v>
-      </c>
-      <c r="C5">
-        <v>2.809118841568618e-14</v>
-      </c>
-      <c r="D5">
-        <v>174.431123147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>5250</v>
-      </c>
-      <c r="G5">
-        <v>2550</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-1592.625959537073</v>
-      </c>
-      <c r="C6">
-        <v>0.0</v>
-      </c>
-      <c r="D6">
-        <v>173.589179563</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>5250</v>
-      </c>
-      <c r="G6">
-        <v>2550</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-1583.7590233767269</v>
-      </c>
-      <c r="C7">
-        <v>2.871316558732971e-14</v>
-      </c>
-      <c r="D7">
-        <v>173.766618097</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>5250</v>
-      </c>
-      <c r="G7">
-        <v>2550</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-1594.0932510310647</v>
-      </c>
-      <c r="C8">
-        <v>0.0</v>
-      </c>
-      <c r="D8">
-        <v>174.305609947</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>5250</v>
-      </c>
-      <c r="G8">
-        <v>2550</v>
-      </c>
-      <c r="H8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-1586.0183589442472</v>
-      </c>
-      <c r="C9">
-        <v>0.0</v>
-      </c>
-      <c r="D9">
-        <v>173.926967717</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>5250</v>
-      </c>
-      <c r="G9">
-        <v>2550</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-1595.393989715721</v>
-      </c>
-      <c r="C10">
-        <v>4.275564723991462e-14</v>
-      </c>
-      <c r="D10">
-        <v>174.022367579</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>5250</v>
-      </c>
-      <c r="G10">
-        <v>2550</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-1615.4330337472431</v>
-      </c>
-      <c r="C11">
-        <v>0.0</v>
-      </c>
-      <c r="D11">
-        <v>176.238823616</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>5250</v>
-      </c>
-      <c r="G11">
-        <v>2550</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
